--- a/helpers/AGS_Namen_Komma.xlsx
+++ b/helpers/AGS_Namen_Komma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring\github\IM_Data\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EDF50D2-7849-4D49-9201-B9950A267BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9732A70B-4F43-4975-99DC-A1E15185ED09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{E31E4ECE-59AC-47CF-8816-43ADAA01EC88}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
   <si>
     <t>Gifhorn</t>
   </si>
@@ -223,6 +223,195 @@
   </si>
   <si>
     <t>Wilhelmshaven, Stadt</t>
+  </si>
+  <si>
+    <t>"Braunschweig, Stadt"</t>
+  </si>
+  <si>
+    <t>"Salzgitter, Stadt"</t>
+  </si>
+  <si>
+    <t>"Wolfsburg, Stadt"</t>
+  </si>
+  <si>
+    <t>"Gifhorn"</t>
+  </si>
+  <si>
+    <t>"Göttingen"</t>
+  </si>
+  <si>
+    <t>"   dav. Göttingen, Stadt"</t>
+  </si>
+  <si>
+    <t>"   dav. Göttingen, Umland"</t>
+  </si>
+  <si>
+    <t>"Goslar"</t>
+  </si>
+  <si>
+    <t>"Helmstedt"</t>
+  </si>
+  <si>
+    <t>"Northeim"</t>
+  </si>
+  <si>
+    <t>"Osterode"</t>
+  </si>
+  <si>
+    <t>"Peine"</t>
+  </si>
+  <si>
+    <t>"Wolfenbüttel"</t>
+  </si>
+  <si>
+    <t>"Statistische Region Braunschweig"</t>
+  </si>
+  <si>
+    <t>"Hannover  Region"</t>
+  </si>
+  <si>
+    <t>"dav. Hannover, Lhst."</t>
+  </si>
+  <si>
+    <t>"dav. Hannover, Umland"</t>
+  </si>
+  <si>
+    <t>"Diepholz"</t>
+  </si>
+  <si>
+    <t>"Hameln-Pyrmont"</t>
+  </si>
+  <si>
+    <t>"Hildesheim"</t>
+  </si>
+  <si>
+    <t>"   dav. Hildesheim, Stadt"</t>
+  </si>
+  <si>
+    <t>"   dav. Hildesheim, Umland"</t>
+  </si>
+  <si>
+    <t>"Holzminden"</t>
+  </si>
+  <si>
+    <t>"Nienburg (Weser)"</t>
+  </si>
+  <si>
+    <t>"Schaumburg"</t>
+  </si>
+  <si>
+    <t>"Statistische Region Hannover"</t>
+  </si>
+  <si>
+    <t>"Celle"</t>
+  </si>
+  <si>
+    <t>"Cuxhaven"</t>
+  </si>
+  <si>
+    <t>"Harburg"</t>
+  </si>
+  <si>
+    <t>"Lüchow-Dannenberg"</t>
+  </si>
+  <si>
+    <t>"Lüchow-Dannenberg / Uelzen"</t>
+  </si>
+  <si>
+    <t>"Uelzen Lüchow-Dannenberg"</t>
+  </si>
+  <si>
+    <t>"Lüneburg"</t>
+  </si>
+  <si>
+    <t>"Osterholz"</t>
+  </si>
+  <si>
+    <t>"Rotenburg (Wümme)"</t>
+  </si>
+  <si>
+    <t>"Heidekreis"</t>
+  </si>
+  <si>
+    <t>"Stade"</t>
+  </si>
+  <si>
+    <t>"Uelzen"</t>
+  </si>
+  <si>
+    <t>"Verden"</t>
+  </si>
+  <si>
+    <t>"Statistische Region Lüneburg"</t>
+  </si>
+  <si>
+    <t>"Delmenhorst, Stadt"</t>
+  </si>
+  <si>
+    <t>"Emden, Stadt / Leer"</t>
+  </si>
+  <si>
+    <t>"Friesland / Wittmund"</t>
+  </si>
+  <si>
+    <t>"Emden  Stadt"</t>
+  </si>
+  <si>
+    <t>"Leer / Emden, Stadt"</t>
+  </si>
+  <si>
+    <t>"Oldenburg(Oldb), Stadt"</t>
+  </si>
+  <si>
+    <t>"Osnabrück, Stadt"</t>
+  </si>
+  <si>
+    <t>"Wilhelmshaven, Stadt"</t>
+  </si>
+  <si>
+    <t>"Ammerland"</t>
+  </si>
+  <si>
+    <t>"Aurich"</t>
+  </si>
+  <si>
+    <t>"Cloppenburg"</t>
+  </si>
+  <si>
+    <t>"Emsland"</t>
+  </si>
+  <si>
+    <t>"Friesland"</t>
+  </si>
+  <si>
+    <t>"Wittmund / Friesland"</t>
+  </si>
+  <si>
+    <t>"Grafschaft Bentheim"</t>
+  </si>
+  <si>
+    <t>"Leer"</t>
+  </si>
+  <si>
+    <t>"Oldenburg"</t>
+  </si>
+  <si>
+    <t>"Osnabrück"</t>
+  </si>
+  <si>
+    <t>"Vechta"</t>
+  </si>
+  <si>
+    <t>"Wesermarsch"</t>
+  </si>
+  <si>
+    <t>"Wittmund"</t>
+  </si>
+  <si>
+    <t>"Statistische Region Weser-Ems"</t>
+  </si>
+  <si>
+    <t>"Niedersachsen"</t>
   </si>
 </sst>
 </file>
@@ -619,559 +808,764 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E09A0C-D727-47AC-AAF0-85939C73DF38}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>152</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>152012</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>152999</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>153</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>154</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>155</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>156</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>157</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>158</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>159</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>159016</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>159999</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>241</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>241001</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>241999</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>251</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>252</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>254</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>254021</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>254999</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>255</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>256</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>257</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>351</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>352</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>353</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>354</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>354360</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>355</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>356</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>357</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>358</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>359</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>360</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>361</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>3</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>401</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>402457</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>455462</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>402</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>403</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>404</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>405</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>451</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>452</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>453</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>454</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>455</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>456</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>457</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>458</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>459</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>460</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>461</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>462</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>4</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>0</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/helpers/AGS_Namen_Komma.xlsx
+++ b/helpers/AGS_Namen_Komma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring\github\IM_Data\helpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15_Uebergreifende_Analysen\Projekte\Integrationsmonitoring\github\IM_Data\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9732A70B-4F43-4975-99DC-A1E15185ED09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FE7D9E-E92E-4EC9-A978-CC5D8429CDD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{E31E4ECE-59AC-47CF-8816-43ADAA01EC88}"/>
   </bookViews>
@@ -156,12 +156,6 @@
     <t>Niedersachsen</t>
   </si>
   <si>
-    <t>Hannover  Region</t>
-  </si>
-  <si>
-    <t>Emden  Stadt</t>
-  </si>
-  <si>
     <t>Lüchow-Dannenberg / Uelzen</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>Leer / Emden, Stadt</t>
   </si>
   <si>
-    <t>Oldenburg(Oldb), Stadt</t>
-  </si>
-  <si>
     <t>Osnabrück, Stadt</t>
   </si>
   <si>
@@ -267,9 +258,6 @@
     <t>"Statistische Region Braunschweig"</t>
   </si>
   <si>
-    <t>"Hannover  Region"</t>
-  </si>
-  <si>
     <t>"dav. Hannover, Lhst."</t>
   </si>
   <si>
@@ -354,15 +342,9 @@
     <t>"Friesland / Wittmund"</t>
   </si>
   <si>
-    <t>"Emden  Stadt"</t>
-  </si>
-  <si>
     <t>"Leer / Emden, Stadt"</t>
   </si>
   <si>
-    <t>"Oldenburg(Oldb), Stadt"</t>
-  </si>
-  <si>
     <t>"Osnabrück, Stadt"</t>
   </si>
   <si>
@@ -412,6 +394,24 @@
   </si>
   <si>
     <t>"Niedersachsen"</t>
+  </si>
+  <si>
+    <t>Region Hannover</t>
+  </si>
+  <si>
+    <t>"Region Hannover"</t>
+  </si>
+  <si>
+    <t>Emden, Stadt</t>
+  </si>
+  <si>
+    <t>"Emden, Stadt"</t>
+  </si>
+  <si>
+    <t>"Oldenburg (Oldb), Stadt"</t>
+  </si>
+  <si>
+    <t>Oldenburg (Oldb), Stadt</t>
   </si>
 </sst>
 </file>
@@ -810,8 +810,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,10 +825,10 @@
         <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,10 +836,10 @@
         <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,10 +880,10 @@
         <v>152012</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,10 +891,10 @@
         <v>152999</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
         <v>159016</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,10 +990,10 @@
         <v>159999</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1012,10 +1012,10 @@
         <v>241</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1023,10 +1023,10 @@
         <v>241001</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,10 +1034,10 @@
         <v>241999</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,10 +1078,10 @@
         <v>254021</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,10 +1089,10 @@
         <v>254999</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1133,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1188,10 +1188,10 @@
         <v>354360</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1199,10 +1199,10 @@
         <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>23</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>24</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>25</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,10 +1287,10 @@
         <v>3</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1298,10 +1298,10 @@
         <v>401</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,10 +1309,10 @@
         <v>402457</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>28</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1331,10 +1331,10 @@
         <v>402</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,10 +1342,10 @@
         <v>26</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,10 +1353,10 @@
         <v>26</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,10 +1364,10 @@
         <v>403</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,10 +1375,10 @@
         <v>404</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1386,10 +1386,10 @@
         <v>405</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
         <v>29</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>32</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>33</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>34</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>35</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>36</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>37</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>38</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
         <v>40</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1551,10 +1551,10 @@
         <v>4</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/helpers/AGS_Namen_Komma.xlsx
+++ b/helpers/AGS_Namen_Komma.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15_Uebergreifende_Analysen\Projekte\Integrationsmonitoring\github\IM_Data\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FE7D9E-E92E-4EC9-A978-CC5D8429CDD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32972A0-0716-4EAF-B822-CA8B25E40270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{E31E4ECE-59AC-47CF-8816-43ADAA01EC88}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13116" firstSheet="1" activeTab="1" xr2:uid="{E31E4ECE-59AC-47CF-8816-43ADAA01EC88}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Anpassungssichten" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
     <t>Gifhorn</t>
   </si>
@@ -412,13 +413,79 @@
   </si>
   <si>
     <t>Oldenburg (Oldb), Stadt</t>
+  </si>
+  <si>
+    <t>Ostniedersachsen</t>
+  </si>
+  <si>
+    <t>Südniedersachsen</t>
+  </si>
+  <si>
+    <t>Weser-Leine-Bergland</t>
+  </si>
+  <si>
+    <t>Mittelniedersachsen</t>
+  </si>
+  <si>
+    <t>Nordniedersachsen</t>
+  </si>
+  <si>
+    <t>Nordostniedersachsen</t>
+  </si>
+  <si>
+    <t>Ostfriesland-Nordseeküste</t>
+  </si>
+  <si>
+    <t>Oldenburger Raum</t>
+  </si>
+  <si>
+    <t>Westniedersachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  dav. Hannover, Landeshauptstadt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  dav. Hannover, Umland</t>
+  </si>
+  <si>
+    <t>"Ostniedersachsen"</t>
+  </si>
+  <si>
+    <t>"Südniedersachsen"</t>
+  </si>
+  <si>
+    <t>"Weser-Leine-Bergland"</t>
+  </si>
+  <si>
+    <t>"Mittelniedersachsen"</t>
+  </si>
+  <si>
+    <t>"Nordniedersachsen"</t>
+  </si>
+  <si>
+    <t>"Nordostniedersachsen"</t>
+  </si>
+  <si>
+    <t>"Ostfriesland-Nordseeküste"</t>
+  </si>
+  <si>
+    <t>"Oldenburger Raum"</t>
+  </si>
+  <si>
+    <t>"Westniedersachsen"</t>
+  </si>
+  <si>
+    <t>"  dav. Hannover, Landeshauptstadt"</t>
+  </si>
+  <si>
+    <t>"  dav. Hannover, Umland"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +517,17 @@
       <color rgb="FF000000"/>
       <name val="NDSFrutiger 45 Light"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="NDSFrutiger 45 Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="NDSFrutiger 55 Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -472,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,6 +569,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -810,17 +894,17 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>101</v>
       </c>
@@ -831,7 +915,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>102</v>
       </c>
@@ -842,7 +926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>103</v>
       </c>
@@ -853,7 +937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>151</v>
       </c>
@@ -864,7 +948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>152</v>
       </c>
@@ -875,7 +959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>152012</v>
       </c>
@@ -886,7 +970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>152999</v>
       </c>
@@ -897,7 +981,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>153</v>
       </c>
@@ -908,7 +992,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>154</v>
       </c>
@@ -919,7 +1003,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>155</v>
       </c>
@@ -930,7 +1014,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>156</v>
       </c>
@@ -941,7 +1025,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>157</v>
       </c>
@@ -952,7 +1036,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>158</v>
       </c>
@@ -963,7 +1047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>159</v>
       </c>
@@ -974,7 +1058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>159016</v>
       </c>
@@ -985,7 +1069,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>159999</v>
       </c>
@@ -996,7 +1080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1007,7 +1091,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>241</v>
       </c>
@@ -1018,7 +1102,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>241001</v>
       </c>
@@ -1029,7 +1113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>241999</v>
       </c>
@@ -1040,7 +1124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>251</v>
       </c>
@@ -1051,7 +1135,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>252</v>
       </c>
@@ -1062,7 +1146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>254</v>
       </c>
@@ -1073,7 +1157,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>254021</v>
       </c>
@@ -1084,7 +1168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>254999</v>
       </c>
@@ -1095,7 +1179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>255</v>
       </c>
@@ -1106,7 +1190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>256</v>
       </c>
@@ -1117,7 +1201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>257</v>
       </c>
@@ -1128,7 +1212,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -1139,7 +1223,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>351</v>
       </c>
@@ -1150,7 +1234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>352</v>
       </c>
@@ -1161,7 +1245,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>353</v>
       </c>
@@ -1172,7 +1256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>354</v>
       </c>
@@ -1183,7 +1267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>354360</v>
       </c>
@@ -1194,7 +1278,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
@@ -1205,7 +1289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>355</v>
       </c>
@@ -1216,7 +1300,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>356</v>
       </c>
@@ -1227,7 +1311,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>357</v>
       </c>
@@ -1238,7 +1322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>358</v>
       </c>
@@ -1249,7 +1333,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>359</v>
       </c>
@@ -1260,7 +1344,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>360</v>
       </c>
@@ -1271,7 +1355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>361</v>
       </c>
@@ -1282,7 +1366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>3</v>
       </c>
@@ -1293,7 +1377,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>401</v>
       </c>
@@ -1304,7 +1388,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>402457</v>
       </c>
@@ -1315,7 +1399,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>455462</v>
       </c>
@@ -1326,7 +1410,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>402</v>
       </c>
@@ -1337,7 +1421,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -1348,7 +1432,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>26</v>
       </c>
@@ -1359,7 +1443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>403</v>
       </c>
@@ -1370,7 +1454,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>404</v>
       </c>
@@ -1381,7 +1465,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>405</v>
       </c>
@@ -1392,7 +1476,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>451</v>
       </c>
@@ -1403,7 +1487,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>452</v>
       </c>
@@ -1414,7 +1498,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>453</v>
       </c>
@@ -1425,7 +1509,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>454</v>
       </c>
@@ -1436,7 +1520,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>455</v>
       </c>
@@ -1447,7 +1531,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1542,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>27</v>
       </c>
@@ -1469,7 +1553,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>456</v>
       </c>
@@ -1480,7 +1564,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>457</v>
       </c>
@@ -1491,7 +1575,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>458</v>
       </c>
@@ -1502,7 +1586,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>459</v>
       </c>
@@ -1513,7 +1597,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>460</v>
       </c>
@@ -1524,7 +1608,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>461</v>
       </c>
@@ -1535,7 +1619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>462</v>
       </c>
@@ -1546,7 +1630,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -1557,7 +1641,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>0</v>
       </c>
@@ -1567,6 +1651,229 @@
       <c r="C68" s="2" t="s">
         <v>122</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA563DF8-0AAA-4F60-BD09-B72E4AA6AA80}">
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection sqref="A1:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2324</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>37</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>38</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>49</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>410</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>411</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/helpers/AGS_Namen_Komma.xlsx
+++ b/helpers/AGS_Namen_Komma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15_Uebergreifende_Analysen\Projekte\Integrationsmonitoring\github\IM_Data\helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32972A0-0716-4EAF-B822-CA8B25E40270}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5476C20-5306-47CF-A7AA-7DF954773195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13116" firstSheet="1" activeTab="1" xr2:uid="{E31E4ECE-59AC-47CF-8816-43ADAA01EC88}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{E31E4ECE-59AC-47CF-8816-43ADAA01EC88}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="150">
   <si>
     <t>Gifhorn</t>
   </si>
@@ -475,10 +475,7 @@
     <t>"Westniedersachsen"</t>
   </si>
   <si>
-    <t>"  dav. Hannover, Landeshauptstadt"</t>
-  </si>
-  <si>
-    <t>"  dav. Hannover, Umland"</t>
+    <t>"dav. Hannover, Landeshauptstadt"</t>
   </si>
 </sst>
 </file>
@@ -894,17 +891,17 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>101</v>
       </c>
@@ -915,7 +912,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>102</v>
       </c>
@@ -926,7 +923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>103</v>
       </c>
@@ -937,7 +934,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>151</v>
       </c>
@@ -948,7 +945,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>152</v>
       </c>
@@ -959,7 +956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>152012</v>
       </c>
@@ -970,7 +967,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>152999</v>
       </c>
@@ -981,7 +978,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>153</v>
       </c>
@@ -992,7 +989,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>154</v>
       </c>
@@ -1003,7 +1000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>155</v>
       </c>
@@ -1014,7 +1011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>156</v>
       </c>
@@ -1025,7 +1022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>157</v>
       </c>
@@ -1036,7 +1033,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>158</v>
       </c>
@@ -1047,7 +1044,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>159</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>159016</v>
       </c>
@@ -1069,7 +1066,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>159999</v>
       </c>
@@ -1080,7 +1077,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1091,7 +1088,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>241</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>241001</v>
       </c>
@@ -1113,7 +1110,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>241999</v>
       </c>
@@ -1124,7 +1121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>251</v>
       </c>
@@ -1135,7 +1132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>252</v>
       </c>
@@ -1146,7 +1143,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>254</v>
       </c>
@@ -1157,7 +1154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>254021</v>
       </c>
@@ -1168,7 +1165,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>254999</v>
       </c>
@@ -1179,7 +1176,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>255</v>
       </c>
@@ -1190,7 +1187,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>256</v>
       </c>
@@ -1201,7 +1198,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>257</v>
       </c>
@@ -1212,7 +1209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -1223,7 +1220,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>351</v>
       </c>
@@ -1234,7 +1231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>352</v>
       </c>
@@ -1245,7 +1242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>353</v>
       </c>
@@ -1256,7 +1253,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>354</v>
       </c>
@@ -1267,7 +1264,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>354360</v>
       </c>
@@ -1278,7 +1275,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +1286,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>355</v>
       </c>
@@ -1300,7 +1297,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>356</v>
       </c>
@@ -1311,7 +1308,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>357</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>358</v>
       </c>
@@ -1333,7 +1330,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>359</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>360</v>
       </c>
@@ -1355,7 +1352,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>361</v>
       </c>
@@ -1366,7 +1363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>3</v>
       </c>
@@ -1377,7 +1374,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>401</v>
       </c>
@@ -1388,7 +1385,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>402457</v>
       </c>
@@ -1399,7 +1396,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>455462</v>
       </c>
@@ -1410,7 +1407,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>402</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -1432,7 +1429,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>26</v>
       </c>
@@ -1443,7 +1440,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>403</v>
       </c>
@@ -1454,7 +1451,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>404</v>
       </c>
@@ -1465,7 +1462,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>405</v>
       </c>
@@ -1476,7 +1473,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>451</v>
       </c>
@@ -1487,7 +1484,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>452</v>
       </c>
@@ -1498,7 +1495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>453</v>
       </c>
@@ -1509,7 +1506,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>454</v>
       </c>
@@ -1520,7 +1517,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>455</v>
       </c>
@@ -1531,7 +1528,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>27</v>
       </c>
@@ -1542,7 +1539,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>27</v>
       </c>
@@ -1553,7 +1550,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>456</v>
       </c>
@@ -1564,7 +1561,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>457</v>
       </c>
@@ -1575,7 +1572,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>458</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>459</v>
       </c>
@@ -1597,7 +1594,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>460</v>
       </c>
@@ -1608,7 +1605,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>461</v>
       </c>
@@ -1619,7 +1616,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>462</v>
       </c>
@@ -1630,7 +1627,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -1641,7 +1638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>0</v>
       </c>
@@ -1662,16 +1659,16 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection sqref="A1:A17"/>
+    <sheetView topLeftCell="A28" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>11</v>
       </c>
@@ -1683,7 +1680,7 @@
       </c>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
@@ -1695,7 +1692,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1707,7 +1704,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2324</v>
       </c>
@@ -1719,7 +1716,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
@@ -1731,7 +1728,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
@@ -1739,11 +1736,11 @@
         <v>139</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1755,7 +1752,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>26</v>
       </c>
@@ -1767,7 +1764,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1779,7 +1776,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>37</v>
       </c>
@@ -1791,7 +1788,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>38</v>
       </c>
@@ -1803,7 +1800,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1815,7 +1812,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>49</v>
       </c>
@@ -1827,7 +1824,7 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>410</v>
       </c>
@@ -1839,7 +1836,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>411</v>
       </c>
@@ -1851,7 +1848,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1863,7 +1860,7 @@
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
